--- a/data/diauxic_at_plate_reader/251208_t0_absorbance.xlsx
+++ b/data/diauxic_at_plate_reader/251208_t0_absorbance.xlsx
@@ -1,100 +1,121 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="14355" windowHeight="8250"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="End point" sheetId="1" r:id="rId1"/>
+    <sheet name="End point" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
-  <si>
-    <t>User: USER</t>
-  </si>
-  <si>
-    <t>Path: C:\Program Files\BMG\Omega\User\Data\</t>
-  </si>
-  <si>
-    <t>Test ID: 34</t>
-  </si>
-  <si>
-    <t>Test Name: eric_absorbance</t>
-  </si>
-  <si>
-    <t>Date: 08.12.2025</t>
-  </si>
-  <si>
-    <t>Time: 11:07:16</t>
-  </si>
-  <si>
-    <t>Absorbance</t>
-  </si>
-  <si>
-    <t>Absorbance values are displayed as OD</t>
-  </si>
-  <si>
-    <t>1. Raw Data (600)</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>2. Blank corrected raw data (600)</t>
-  </si>
-  <si>
-    <t>Average of all blanks used</t>
-  </si>
-  <si>
-    <t>3. Average based on Blank corrected (600)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+  <si>
+    <t xml:space="preserve">User: USER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path: C:\Program Files\BMG\Omega\User\Data\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test ID: 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Name: eric_absorbance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date: 08.12.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time: 11:07:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absorbance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absorbance values are displayed as OD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Raw Data (600)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Blank corrected raw data (600)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Average based on Blank corrected (600)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,220 +127,225 @@
     </fill>
   </fills>
   <borders count="12">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -327,291 +353,186 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A3:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29:H29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="15" max="15" width="31.7109375" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="31.71"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -619,91 +540,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="2" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="3">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="B15" s="3" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="D15" s="4" t="n">
         <v>0.311</v>
       </c>
-      <c r="E15" s="4">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="E15" s="4" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="H15" s="4" t="n">
         <v>0.308</v>
       </c>
-      <c r="I15" s="4">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="K15" s="4">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="L15" s="4">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="M15" s="5">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I15" s="4" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="K15" s="4" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="L15" s="4" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.085</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -720,7 +641,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -737,7 +658,7 @@
       <c r="L17" s="7"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -754,7 +675,7 @@
       <c r="L18" s="7"/>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -771,7 +692,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -788,7 +709,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
@@ -805,17 +726,17 @@
       <c r="L21" s="7"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="9" t="n">
         <v>0.09</v>
       </c>
-      <c r="C22" s="10">
-        <v>9.4E-2</v>
-      </c>
-      <c r="D22" s="10">
+      <c r="C22" s="10" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="D22" s="10" t="n">
         <v>0.1</v>
       </c>
       <c r="E22" s="10"/>
@@ -828,96 +749,92 @@
       <c r="L22" s="10"/>
       <c r="M22" s="11"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
         <v>17</v>
       </c>
       <c r="O24" s="12"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="O25" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="3">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="B26" s="3" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="C26" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="4" t="n">
         <v>0.217</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="4" t="n">
         <v>0.184</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="4" t="n">
         <v>0.19</v>
       </c>
-      <c r="G26" s="4">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="H26" s="4">
+      <c r="G26" s="4" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="H26" s="4" t="n">
         <v>0.214</v>
       </c>
-      <c r="I26" s="4">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="K26" s="4">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="L26" s="4">
+      <c r="I26" s="4" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="J26" s="4" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="K26" s="4" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="L26" s="4" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M26" s="5">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="O26" s="14"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M26" s="5" t="n">
+        <v>-0.009</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -934,11 +851,11 @@
       <c r="L27" s="7"/>
       <c r="M27" s="8"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -951,24 +868,33 @@
       <c r="L28" s="7"/>
       <c r="M28" s="8"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="14" t="n">
+        <f aca="false">AVERAGE(B26:D26)</f>
+        <v>0.198</v>
+      </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="E29" s="7" t="n">
+        <f aca="false">AVERAGE(E26:G26)</f>
+        <v>0.194333333333333</v>
+      </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="H29" s="7" t="n">
+        <f aca="false">AVERAGE(H26:J26)</f>
+        <v>0.221666666666667</v>
+      </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
@@ -985,7 +911,7 @@
       <c r="L30" s="7"/>
       <c r="M30" s="8"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -1002,7 +928,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="8"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
@@ -1019,7 +945,7 @@
       <c r="L32" s="7"/>
       <c r="M32" s="8"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>16</v>
       </c>
@@ -1036,91 +962,91 @@
       <c r="L33" s="10"/>
       <c r="M33" s="11"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="2">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="2" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="3">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="C37" s="4">
+      <c r="B37" s="3" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="C37" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="4" t="n">
         <v>0.217</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="4" t="n">
         <v>0.184</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="4" t="n">
         <v>0.19</v>
       </c>
-      <c r="G37" s="4">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="H37" s="4">
+      <c r="G37" s="4" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="H37" s="4" t="n">
         <v>0.214</v>
       </c>
-      <c r="I37" s="4">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="J37" s="4">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="K37" s="4">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="L37" s="4">
+      <c r="I37" s="4" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="J37" s="4" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="K37" s="4" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="L37" s="4" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M37" s="5">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M37" s="5" t="n">
+        <v>-0.009</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
@@ -1137,7 +1063,7 @@
       <c r="L38" s="7"/>
       <c r="M38" s="8"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>11</v>
       </c>
@@ -1154,7 +1080,7 @@
       <c r="L39" s="7"/>
       <c r="M39" s="8"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>12</v>
       </c>
@@ -1171,7 +1097,7 @@
       <c r="L40" s="7"/>
       <c r="M40" s="8"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>13</v>
       </c>
@@ -1188,7 +1114,7 @@
       <c r="L41" s="7"/>
       <c r="M41" s="8"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>14</v>
       </c>
@@ -1205,7 +1131,7 @@
       <c r="L42" s="7"/>
       <c r="M42" s="8"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>15</v>
       </c>
@@ -1222,7 +1148,7 @@
       <c r="L43" s="7"/>
       <c r="M43" s="8"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>16</v>
       </c>
@@ -1240,7 +1166,12 @@
       <c r="M44" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>